--- a/DATA UMROH.xlsx
+++ b/DATA UMROH.xlsx
@@ -1,36 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\skripsi\client\ayu rohmaniya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB0638E-E58C-4B00-97E7-4209C07F772B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE532FEC-D180-4219-84BF-6A3497F3A975}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="dataset" sheetId="2" r:id="rId2"/>
     <sheet name="forecast" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>WILAYAH</t>
   </si>
@@ -165,13 +157,25 @@
   </si>
   <si>
     <t>ma(3)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Bulan</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +196,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -209,25 +226,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -236,14 +259,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,27 +618,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O1" sqref="A1:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
-    <col min="6" max="14" width="9.109375" style="1"/>
-    <col min="15" max="15" width="13" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="7.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="2" customWidth="1"/>
+    <col min="6" max="14" width="7.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -622,1238 +654,1240 @@
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4">
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="9">
         <v>4</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="9">
         <v>5</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="9">
         <v>6</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="9">
         <v>7</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="9">
         <v>8</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="9">
         <v>9</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="9">
         <v>10</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="9">
         <v>11</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="9">
         <v>12</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
         <v>70</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="9">
         <v>80</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="9">
         <v>75</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="9">
         <v>95</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="9">
         <v>109</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="9">
         <v>95</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="9">
         <v>97</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="9">
         <v>90</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="9">
         <v>102</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="9">
         <v>103</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="9">
         <v>106</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="9">
         <v>120</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="9">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="9">
         <v>33</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="9">
         <v>50</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="9">
         <v>65</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="9">
         <v>70</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="9">
         <v>65</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="9">
         <v>55</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="9">
         <v>80</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="9">
         <v>70</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="9">
         <v>85</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="9">
         <v>90</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="9">
         <v>70</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="9">
         <v>95</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="9">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="9">
         <v>10</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="9">
         <v>15</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="9">
         <v>11</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="9">
         <v>13</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="9">
         <v>15</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="9">
         <v>19</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="9">
         <v>17</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="9">
         <v>7</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="9">
         <v>5</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="9">
         <v>4</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="9">
         <v>11</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="9">
         <v>9</v>
       </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="O6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
         <v>5</v>
       </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
         <v>3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="9">
         <v>4</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
         <v>5</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="9">
         <v>3</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="9">
         <v>5</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>1</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
         <v>3</v>
       </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="H9" s="9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2</v>
+      </c>
+      <c r="L9" s="9">
         <v>4</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
         <v>4</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="9">
         <v>7</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="9">
         <v>4</v>
       </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9">
         <v>5</v>
       </c>
-      <c r="N10" s="1">
-        <v>2</v>
-      </c>
-      <c r="O10" s="1">
+      <c r="N10" s="9">
+        <v>2</v>
+      </c>
+      <c r="O10" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>2</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>2</v>
+      </c>
+      <c r="N11" s="9">
+        <v>2</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>2</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>2</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="9">
         <v>3</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
         <v>3</v>
       </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1">
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
+        <v>2</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9">
+        <v>1</v>
+      </c>
+      <c r="O13" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="9">
         <v>4</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="9">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9">
         <v>3</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="9">
         <v>3</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
         <v>5</v>
       </c>
-      <c r="I14" s="1">
-        <v>2</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="9">
+        <v>2</v>
+      </c>
+      <c r="J14" s="9">
         <v>4</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="9">
         <v>4</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="9">
         <v>7</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="9">
         <v>5</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="9">
         <v>5</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2</v>
+      </c>
+      <c r="G15" s="9">
         <v>3</v>
       </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
         <v>3</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
         <v>5</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="9">
         <v>7</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="9">
         <v>4</v>
       </c>
-      <c r="K16" s="1">
-        <v>2</v>
-      </c>
-      <c r="L16" s="1">
-        <v>2</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="K16" s="9">
+        <v>2</v>
+      </c>
+      <c r="L16" s="9">
+        <v>2</v>
+      </c>
+      <c r="M16" s="9">
         <v>4</v>
       </c>
-      <c r="N16" s="1">
-        <v>2</v>
-      </c>
-      <c r="O16" s="1">
+      <c r="N16" s="9">
+        <v>2</v>
+      </c>
+      <c r="O16" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:15" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
         <v>4</v>
       </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
         <v>4</v>
       </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>1</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
         <v>3</v>
       </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>2</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>17</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>2</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>2</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
         <v>3</v>
       </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>2</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>2</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>2</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>2</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>19</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
-        <v>1</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>1</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>20</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="C23" s="9">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
         <v>3</v>
       </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
         <v>4</v>
       </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
         <v>5</v>
       </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>2</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9">
         <v>6</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="9">
         <v>4</v>
       </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
         <v>7</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="9">
         <v>5</v>
       </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>22</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="9">
         <v>4</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="9">
         <v>3</v>
       </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
         <v>3</v>
       </c>
-      <c r="H25" s="1">
-        <v>2</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>2</v>
-      </c>
-      <c r="N25" s="1">
-        <v>2</v>
-      </c>
-      <c r="O25" s="1">
+      <c r="H25" s="9">
+        <v>2</v>
+      </c>
+      <c r="I25" s="9">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>2</v>
+      </c>
+      <c r="N25" s="9">
+        <v>2</v>
+      </c>
+      <c r="O25" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
         <v>4</v>
       </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>2</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>2</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="9">
         <f>SUM(C4:C26)</f>
         <v>141</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="9">
         <f t="shared" ref="D27:O27" si="0">SUM(D4:D26)</f>
         <v>152</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="9">
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="9">
         <f t="shared" si="0"/>
         <v>201</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="9">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="9">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="9">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="9">
         <f t="shared" si="0"/>
         <v>198</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="9">
         <f t="shared" si="0"/>
         <v>221</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="9">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="9">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27" s="9">
         <f t="shared" si="0"/>
         <v>247</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="9">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1864,223 +1898,224 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="8.88671875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="3" width="12.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
+    <row r="1" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
         <v>2019</v>
       </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
         <f>HLOOKUP(A2,Sheet1!$C$3:$O$27,25,0)</f>
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
         <v>2019</v>
       </c>
-      <c r="C3" s="7">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9">
         <f>HLOOKUP(A3,Sheet1!$C$3:$O$27,25,0)</f>
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+    <row r="4" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="9">
         <v>2019</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <f>HLOOKUP(A4,Sheet1!$C$3:$O$27,25,0)</f>
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="5" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="9">
         <v>2019</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <f>HLOOKUP(A5,Sheet1!$C$3:$O$27,25,0)</f>
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+    <row r="6" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="9">
         <v>2019</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <f>HLOOKUP(A6,Sheet1!$C$3:$O$27,25,0)</f>
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+    <row r="7" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="9">
         <v>2019</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <f>HLOOKUP(A7,Sheet1!$C$3:$O$27,25,0)</f>
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+    <row r="8" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="9">
         <v>2019</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>7</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <f>HLOOKUP(A8,Sheet1!$C$3:$O$27,25,0)</f>
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="9" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="9">
         <v>2019</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <f>HLOOKUP(A9,Sheet1!$C$3:$O$27,25,0)</f>
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="10" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="9">
         <v>2019</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <f>HLOOKUP(A10,Sheet1!$C$3:$O$27,25,0)</f>
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+    <row r="11" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="9">
         <v>2019</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>10</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <f>HLOOKUP(A11,Sheet1!$C$3:$O$27,25,0)</f>
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+    <row r="12" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="9">
         <v>2019</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>11</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <f>HLOOKUP(A12,Sheet1!$C$3:$O$27,25,0)</f>
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+    <row r="13" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="9">
         <v>2019</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>12</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <f>HLOOKUP(A13,Sheet1!$C$3:$O$27,25,0)</f>
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+    <row r="14" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="9">
         <v>2020</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <v>13</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <f>HLOOKUP(A14,Sheet1!$C$3:$O$27,25,0)</f>
         <v>152</v>
       </c>
@@ -2094,595 +2129,595 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>2019</v>
       </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
         <f>HLOOKUP(A2,Sheet1!$C$3:$O$27,25,0)</f>
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
         <v>2019</v>
       </c>
-      <c r="C3" s="7">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
         <f>HLOOKUP(A3,Sheet1!$C$3:$O$27,25,0)</f>
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>2019</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <f>HLOOKUP(A4,Sheet1!$C$3:$O$27,25,0)</f>
         <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>2019</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <f>HLOOKUP(A5,Sheet1!$C$3:$O$27,25,0)</f>
         <v>201</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <f>AVERAGE(D2:D4)</f>
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>2019</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <f>HLOOKUP(A6,Sheet1!$C$3:$O$27,25,0)</f>
         <v>220</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <f t="shared" ref="E6:E37" si="0">AVERAGE(D3:D5)</f>
         <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>2019</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <f>HLOOKUP(A7,Sheet1!$C$3:$O$27,25,0)</f>
         <v>193</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>195.66666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>2019</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>7</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <f>HLOOKUP(A8,Sheet1!$C$3:$O$27,25,0)</f>
         <v>210</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>204.66666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>2019</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <f>HLOOKUP(A9,Sheet1!$C$3:$O$27,25,0)</f>
         <v>198</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>207.66666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>2019</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <f>HLOOKUP(A10,Sheet1!$C$3:$O$27,25,0)</f>
         <v>221</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>200.33333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>2019</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <f>HLOOKUP(A11,Sheet1!$C$3:$O$27,25,0)</f>
         <v>225</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>209.66666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>2019</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>11</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <f>HLOOKUP(A12,Sheet1!$C$3:$O$27,25,0)</f>
         <v>225</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>214.66666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>2019</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>12</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <f>HLOOKUP(A13,Sheet1!$C$3:$O$27,25,0)</f>
         <v>247</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>223.66666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>2020</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
         <f>HLOOKUP(A14,Sheet1!$C$3:$O$27,25,0)</f>
         <v>152</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>232.33333333333334</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>2020</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>2</v>
       </c>
       <c r="D15">
         <f>E14</f>
         <v>232.33333333333334</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <v>2020</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="4">
         <v>3</v>
       </c>
       <c r="D16">
         <f t="shared" ref="D16:D37" si="1">E15</f>
         <v>208</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>210.44444444444446</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>2020</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <v>4</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
         <v>210.44444444444446</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>197.44444444444446</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>2020</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="4">
         <v>5</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
         <v>197.44444444444446</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>216.92592592592595</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <v>2020</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="4">
         <v>6</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
         <v>216.92592592592595</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>205.2962962962963</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="6">
+      <c r="B20" s="3">
         <v>2020</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="4">
         <v>7</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
         <v>205.2962962962963</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <f t="shared" si="0"/>
         <v>208.27160493827162</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="6">
+      <c r="B21" s="3">
         <v>2020</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="4">
         <v>8</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
         <v>208.27160493827162</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>206.55555555555557</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <v>2020</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="4">
         <v>9</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
         <v>206.55555555555557</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>210.16460905349797</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="6">
+      <c r="B23" s="3">
         <v>2020</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="4">
         <v>10</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
         <v>210.16460905349797</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3">
         <f t="shared" si="0"/>
         <v>206.70781893004116</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="6">
+      <c r="B24" s="3">
         <v>2020</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="4">
         <v>11</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
         <v>206.70781893004116</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3">
         <f t="shared" si="0"/>
         <v>208.33058984910838</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="6">
+      <c r="B25" s="3">
         <v>2020</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="4">
         <v>12</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
         <v>208.33058984910838</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="3">
         <f t="shared" si="0"/>
         <v>207.80932784636491</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="7">
+      <c r="C26" s="4">
         <v>1</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
         <v>207.80932784636491</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="3">
         <f t="shared" si="0"/>
         <v>208.40100594421583</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="7">
+      <c r="C27" s="4">
         <v>2</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
         <v>208.40100594421583</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="3">
         <f t="shared" si="0"/>
         <v>207.61591220850482</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="7">
+      <c r="C28" s="4">
         <v>3</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
         <v>207.61591220850482</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="3">
         <f t="shared" si="0"/>
         <v>208.18030787989639</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="7">
+      <c r="C29" s="4">
         <v>4</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
         <v>208.18030787989639</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="3">
         <f t="shared" si="0"/>
         <v>207.9420819996952</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="7">
+      <c r="C30" s="4">
         <v>5</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
         <v>207.9420819996952</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="3">
         <f t="shared" si="0"/>
         <v>208.06574201087236</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="7">
+      <c r="C31" s="4">
         <v>6</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
         <v>208.06574201087236</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="3">
         <f t="shared" si="0"/>
         <v>207.91276736269882</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="7">
+      <c r="C32" s="4">
         <v>7</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
         <v>207.91276736269882</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="3">
         <f t="shared" si="0"/>
         <v>208.06271063015467</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="7">
+      <c r="C33" s="4">
         <v>8</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
         <v>208.06271063015467</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="3">
         <f t="shared" si="0"/>
         <v>207.97353045775546</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="7">
+      <c r="C34" s="4">
         <v>9</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
         <v>207.97353045775546</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="3">
         <f t="shared" si="0"/>
         <v>208.01374000124193</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="7">
+      <c r="C35" s="4">
         <v>10</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
         <v>208.01374000124193</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="3">
         <f t="shared" si="0"/>
         <v>207.98300281686966</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C36" s="7">
+      <c r="C36" s="4">
         <v>11</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
         <v>207.98300281686966</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="3">
         <f t="shared" si="0"/>
         <v>208.0166603630507</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C37" s="7">
+      <c r="C37" s="4">
         <v>12</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
         <v>208.0166603630507</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="3">
         <f t="shared" si="0"/>
         <v>207.99009109195569</v>
       </c>
